--- a/周测成绩xlsx.xlsx
+++ b/周测成绩xlsx.xlsx
@@ -41,6 +41,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">周测</t>
     </r>
@@ -146,6 +147,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -232,11 +234,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -245,8 +251,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -273,32 +283,31 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.57021276595745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.7234042553191"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.2723404255319"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.131914893617"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.5106382978723"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>96</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -306,10 +315,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>100</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -317,10 +326,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>96</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -328,10 +337,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>86</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -339,10 +348,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>92</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -353,15 +362,16 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="0"/>
       <c r="C7" s="0" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>96</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -369,10 +379,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>84</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -380,10 +390,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>88</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -391,10 +401,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>80</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -402,10 +412,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>78</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -413,10 +423,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>72</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -424,10 +434,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>56</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -435,10 +445,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>72</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -449,15 +459,16 @@
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="0"/>
       <c r="C16" s="0" t="n">
         <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
         <v>76</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -465,10 +476,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="2" t="n">
         <v>92</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -476,18 +487,19 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B19" s="0"/>
       <c r="C19" s="0" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>76</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -495,10 +507,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="2" t="n">
         <v>80</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -506,10 +518,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>64</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -517,10 +529,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>64</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -531,15 +543,16 @@
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B24" s="0"/>
       <c r="C24" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>62</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -547,10 +560,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>52</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -558,10 +571,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>58</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -569,10 +582,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>48</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -580,10 +593,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>38</v>
       </c>
       <c r="C29" s="0" t="n">
